--- a/Links - Copy.xlsx
+++ b/Links - Copy.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t xml:space="preserve">COUNTY </t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>Completed!</t>
+  </si>
+  <si>
+    <t>Working!</t>
   </si>
 </sst>
 </file>
@@ -649,7 +652,7 @@
   <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -825,6 +828,9 @@
       </c>
       <c r="C16" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
